--- a/database/industries/shoyande/kimiatec/income/quarterly/dollar.xlsx
+++ b/database/industries/shoyande/kimiatec/income/quarterly/dollar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8774EC-D12D-4E43-9128-809246C2A077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیاتک-آریان کیمیا تک</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-09-14 (4)</t>
-  </si>
-  <si>
-    <t>1400-10-29</t>
-  </si>
-  <si>
-    <t>1401-09-14 (6)</t>
+    <t>1401-10-28 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28 (7)</t>
   </si>
   <si>
     <t>1401-04-28</t>
   </si>
   <si>
     <t>1401-09-14 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +308,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -319,7 +320,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -366,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,21 +587,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -575,7 +610,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,7 +621,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -597,7 +632,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -606,7 +641,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -617,7 +652,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -628,7 +663,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -637,7 +672,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -658,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -679,7 +714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -688,91 +723,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>16400</v>
+        <v>15290</v>
       </c>
       <c r="E11" s="13">
-        <v>15290</v>
+        <v>18831</v>
       </c>
       <c r="F11" s="13">
-        <v>18831</v>
+        <v>19124</v>
       </c>
       <c r="G11" s="13">
-        <v>19124</v>
+        <v>21421</v>
       </c>
       <c r="H11" s="13">
-        <v>21421</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>21070</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-8142</v>
+        <v>-8791</v>
       </c>
       <c r="E12" s="11">
-        <v>-7772</v>
+        <v>-11566</v>
       </c>
       <c r="F12" s="11">
-        <v>-11566</v>
+        <v>-10473</v>
       </c>
       <c r="G12" s="11">
-        <v>-10473</v>
+        <v>-11005</v>
       </c>
       <c r="H12" s="11">
-        <v>-11005</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-12038</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>8257</v>
+        <v>6499</v>
       </c>
       <c r="E13" s="15">
-        <v>7517</v>
+        <v>7265</v>
       </c>
       <c r="F13" s="15">
-        <v>7265</v>
+        <v>8651</v>
       </c>
       <c r="G13" s="15">
-        <v>8651</v>
+        <v>10416</v>
       </c>
       <c r="H13" s="15">
-        <v>10416</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9033</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-2905</v>
+        <v>-2153</v>
       </c>
       <c r="E14" s="11">
-        <v>-3171</v>
+        <v>-2780</v>
       </c>
       <c r="F14" s="11">
-        <v>-2780</v>
+        <v>-3203</v>
       </c>
       <c r="G14" s="11">
-        <v>-3203</v>
+        <v>-3768</v>
       </c>
       <c r="H14" s="11">
-        <v>-3768</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-3849</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -793,7 +828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -814,133 +849,133 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>5352</v>
+        <v>4346</v>
       </c>
       <c r="E17" s="15">
-        <v>4346</v>
+        <v>4484</v>
       </c>
       <c r="F17" s="15">
-        <v>4484</v>
+        <v>5448</v>
       </c>
       <c r="G17" s="15">
-        <v>5448</v>
+        <v>6648</v>
       </c>
       <c r="H17" s="15">
-        <v>6648</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-609</v>
+        <v>-604</v>
       </c>
       <c r="E18" s="11">
-        <v>-604</v>
+        <v>-707</v>
       </c>
       <c r="F18" s="11">
-        <v>-707</v>
+        <v>-845</v>
       </c>
       <c r="G18" s="11">
-        <v>-845</v>
+        <v>-797</v>
       </c>
       <c r="H18" s="11">
-        <v>-797</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-769</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E19" s="13">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="F19" s="13">
-        <v>236</v>
+        <v>-167</v>
       </c>
       <c r="G19" s="13">
-        <v>-167</v>
+        <v>-22</v>
       </c>
       <c r="H19" s="13">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-322</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>4843</v>
+        <v>3778</v>
       </c>
       <c r="E20" s="17">
-        <v>3778</v>
+        <v>4014</v>
       </c>
       <c r="F20" s="17">
-        <v>4014</v>
+        <v>4436</v>
       </c>
       <c r="G20" s="17">
-        <v>4436</v>
+        <v>5830</v>
       </c>
       <c r="H20" s="17">
-        <v>5830</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-354</v>
+        <v>-310</v>
       </c>
       <c r="E21" s="13">
-        <v>-310</v>
+        <v>-15</v>
       </c>
       <c r="F21" s="13">
-        <v>-15</v>
+        <v>-311</v>
       </c>
       <c r="G21" s="13">
-        <v>-311</v>
+        <v>-319</v>
       </c>
       <c r="H21" s="13">
-        <v>-319</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>4489</v>
+        <v>3468</v>
       </c>
       <c r="E22" s="17">
-        <v>3468</v>
+        <v>3999</v>
       </c>
       <c r="F22" s="17">
-        <v>3999</v>
+        <v>4126</v>
       </c>
       <c r="G22" s="17">
-        <v>4126</v>
+        <v>5511</v>
       </c>
       <c r="H22" s="17">
-        <v>5511</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -961,28 +996,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>4489</v>
+        <v>3468</v>
       </c>
       <c r="E24" s="17">
-        <v>3468</v>
+        <v>3999</v>
       </c>
       <c r="F24" s="17">
-        <v>3999</v>
+        <v>4126</v>
       </c>
       <c r="G24" s="17">
-        <v>4126</v>
+        <v>5511</v>
       </c>
       <c r="H24" s="17">
-        <v>5511</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1003,28 +1038,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>5747</v>
+        <v>5268</v>
       </c>
       <c r="E26" s="11">
-        <v>5268</v>
+        <v>5446</v>
       </c>
       <c r="F26" s="11">
-        <v>5446</v>
+        <v>5105</v>
       </c>
       <c r="G26" s="11">
-        <v>5105</v>
+        <v>12897</v>
       </c>
       <c r="H26" s="11">
-        <v>12897</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11513</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1045,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/shoyande/kimiatec/income/quarterly/dollar.xlsx
+++ b/database/industries/shoyande/kimiatec/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0D2DB-FD6F-446E-BE48-D2D33E9E40C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B05DF-4AF0-41D4-8F1A-2FD1B044BD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-01 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (3)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
+    <t>1402-02-25 (8)</t>
   </si>
   <si>
     <t>1401-04-28</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-25</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,18 +622,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,151 +826,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>14111</v>
+        <v>11525</v>
       </c>
       <c r="E11" s="13">
-        <v>11525</v>
+        <v>17995</v>
       </c>
       <c r="F11" s="13">
-        <v>17995</v>
+        <v>14529</v>
       </c>
       <c r="G11" s="13">
-        <v>14529</v>
+        <v>16400</v>
       </c>
       <c r="H11" s="13">
-        <v>16400</v>
+        <v>15290</v>
       </c>
       <c r="I11" s="13">
-        <v>15290</v>
+        <v>18831</v>
       </c>
       <c r="J11" s="13">
-        <v>18831</v>
+        <v>19124</v>
       </c>
       <c r="K11" s="13">
-        <v>19124</v>
+        <v>21421</v>
       </c>
       <c r="L11" s="13">
-        <v>21421</v>
+        <v>21070</v>
       </c>
       <c r="M11" s="13">
-        <v>21070</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>16889</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-6623</v>
+        <v>-4735</v>
       </c>
       <c r="E12" s="11">
-        <v>-4735</v>
+        <v>-11137</v>
       </c>
       <c r="F12" s="11">
-        <v>-11137</v>
+        <v>-7222</v>
       </c>
       <c r="G12" s="11">
-        <v>-7222</v>
+        <v>-8142</v>
       </c>
       <c r="H12" s="11">
-        <v>-8142</v>
+        <v>-8791</v>
       </c>
       <c r="I12" s="11">
-        <v>-8791</v>
+        <v>-10513</v>
       </c>
       <c r="J12" s="11">
-        <v>-11566</v>
+        <v>-10473</v>
       </c>
       <c r="K12" s="11">
-        <v>-10473</v>
+        <v>-11005</v>
       </c>
       <c r="L12" s="11">
-        <v>-11005</v>
+        <v>-12038</v>
       </c>
       <c r="M12" s="11">
-        <v>-12038</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-9880</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>7488</v>
+        <v>6789</v>
       </c>
       <c r="E13" s="15">
-        <v>6789</v>
+        <v>6858</v>
       </c>
       <c r="F13" s="15">
-        <v>6858</v>
+        <v>7308</v>
       </c>
       <c r="G13" s="15">
-        <v>7308</v>
+        <v>8257</v>
       </c>
       <c r="H13" s="15">
-        <v>8257</v>
+        <v>6499</v>
       </c>
       <c r="I13" s="15">
-        <v>6499</v>
+        <v>8318</v>
       </c>
       <c r="J13" s="15">
-        <v>7265</v>
+        <v>8651</v>
       </c>
       <c r="K13" s="15">
-        <v>8651</v>
+        <v>10416</v>
       </c>
       <c r="L13" s="15">
-        <v>10416</v>
+        <v>9033</v>
       </c>
       <c r="M13" s="15">
-        <v>9033</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-1873</v>
+        <v>-1595</v>
       </c>
       <c r="E14" s="11">
-        <v>-1595</v>
+        <v>-2519</v>
       </c>
       <c r="F14" s="11">
-        <v>-2519</v>
+        <v>-2819</v>
       </c>
       <c r="G14" s="11">
-        <v>-2819</v>
+        <v>-2905</v>
       </c>
       <c r="H14" s="11">
-        <v>-2905</v>
+        <v>-2153</v>
       </c>
       <c r="I14" s="11">
-        <v>-2153</v>
+        <v>-3833</v>
       </c>
       <c r="J14" s="11">
-        <v>-2780</v>
+        <v>-3203</v>
       </c>
       <c r="K14" s="11">
-        <v>-3203</v>
+        <v>-3768</v>
       </c>
       <c r="L14" s="11">
-        <v>-3768</v>
+        <v>-3849</v>
       </c>
       <c r="M14" s="11">
-        <v>-3849</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-2901</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
@@ -1041,223 +1042,223 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>5616</v>
+        <v>5194</v>
       </c>
       <c r="E17" s="15">
-        <v>5194</v>
+        <v>4339</v>
       </c>
       <c r="F17" s="15">
-        <v>4339</v>
+        <v>4489</v>
       </c>
       <c r="G17" s="15">
-        <v>4489</v>
+        <v>5352</v>
       </c>
       <c r="H17" s="15">
-        <v>5352</v>
+        <v>4346</v>
       </c>
       <c r="I17" s="15">
-        <v>4346</v>
+        <v>4484</v>
       </c>
       <c r="J17" s="15">
-        <v>4484</v>
+        <v>5448</v>
       </c>
       <c r="K17" s="15">
-        <v>5448</v>
+        <v>6648</v>
       </c>
       <c r="L17" s="15">
-        <v>6648</v>
+        <v>5184</v>
       </c>
       <c r="M17" s="15">
-        <v>5184</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-584</v>
+        <v>-479</v>
       </c>
       <c r="E18" s="11">
-        <v>-479</v>
+        <v>-603</v>
       </c>
       <c r="F18" s="11">
-        <v>-603</v>
+        <v>-637</v>
       </c>
       <c r="G18" s="11">
-        <v>-637</v>
+        <v>-609</v>
       </c>
       <c r="H18" s="11">
-        <v>-609</v>
+        <v>-604</v>
       </c>
       <c r="I18" s="11">
-        <v>-604</v>
+        <v>-707</v>
       </c>
       <c r="J18" s="11">
-        <v>-707</v>
+        <v>-845</v>
       </c>
       <c r="K18" s="11">
-        <v>-845</v>
+        <v>-797</v>
       </c>
       <c r="L18" s="11">
-        <v>-797</v>
+        <v>-769</v>
       </c>
       <c r="M18" s="11">
-        <v>-769</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-607</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-381</v>
+        <v>158</v>
       </c>
       <c r="E19" s="13">
-        <v>158</v>
+        <v>-32</v>
       </c>
       <c r="F19" s="13">
-        <v>-32</v>
+        <v>-15</v>
       </c>
       <c r="G19" s="13">
-        <v>-15</v>
+        <v>100</v>
       </c>
       <c r="H19" s="13">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I19" s="13">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="J19" s="13">
-        <v>236</v>
+        <v>-167</v>
       </c>
       <c r="K19" s="13">
-        <v>-167</v>
+        <v>-22</v>
       </c>
       <c r="L19" s="13">
-        <v>-22</v>
+        <v>-322</v>
       </c>
       <c r="M19" s="13">
-        <v>-322</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>4650</v>
+        <v>4873</v>
       </c>
       <c r="E20" s="17">
-        <v>4873</v>
+        <v>3705</v>
       </c>
       <c r="F20" s="17">
-        <v>3705</v>
+        <v>3837</v>
       </c>
       <c r="G20" s="17">
-        <v>3837</v>
+        <v>4843</v>
       </c>
       <c r="H20" s="17">
-        <v>4843</v>
+        <v>3778</v>
       </c>
       <c r="I20" s="17">
-        <v>3778</v>
+        <v>4014</v>
       </c>
       <c r="J20" s="17">
-        <v>4014</v>
+        <v>4436</v>
       </c>
       <c r="K20" s="17">
-        <v>4436</v>
+        <v>5830</v>
       </c>
       <c r="L20" s="17">
-        <v>5830</v>
+        <v>4093</v>
       </c>
       <c r="M20" s="17">
         <v>4093</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-314</v>
+        <v>-406</v>
       </c>
       <c r="E21" s="13">
-        <v>-406</v>
+        <v>136</v>
       </c>
       <c r="F21" s="13">
-        <v>136</v>
+        <v>-142</v>
       </c>
       <c r="G21" s="13">
-        <v>-142</v>
+        <v>-354</v>
       </c>
       <c r="H21" s="13">
-        <v>-354</v>
+        <v>-310</v>
       </c>
       <c r="I21" s="13">
-        <v>-310</v>
+        <v>-15</v>
       </c>
       <c r="J21" s="13">
-        <v>-15</v>
+        <v>-311</v>
       </c>
       <c r="K21" s="13">
-        <v>-311</v>
+        <v>-319</v>
       </c>
       <c r="L21" s="13">
-        <v>-319</v>
+        <v>-250</v>
       </c>
       <c r="M21" s="13">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>4336</v>
+        <v>4467</v>
       </c>
       <c r="E22" s="17">
-        <v>4467</v>
+        <v>3840</v>
       </c>
       <c r="F22" s="17">
-        <v>3840</v>
+        <v>3694</v>
       </c>
       <c r="G22" s="17">
-        <v>3694</v>
+        <v>4489</v>
       </c>
       <c r="H22" s="17">
-        <v>4489</v>
+        <v>3468</v>
       </c>
       <c r="I22" s="17">
-        <v>3468</v>
+        <v>3999</v>
       </c>
       <c r="J22" s="17">
-        <v>3999</v>
+        <v>4126</v>
       </c>
       <c r="K22" s="17">
-        <v>4126</v>
+        <v>5511</v>
       </c>
       <c r="L22" s="17">
-        <v>5511</v>
+        <v>3843</v>
       </c>
       <c r="M22" s="17">
-        <v>3843</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1293,43 +1294,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>4336</v>
+        <v>4467</v>
       </c>
       <c r="E24" s="17">
-        <v>4467</v>
+        <v>3840</v>
       </c>
       <c r="F24" s="17">
-        <v>3840</v>
+        <v>3694</v>
       </c>
       <c r="G24" s="17">
-        <v>3694</v>
+        <v>4489</v>
       </c>
       <c r="H24" s="17">
-        <v>4489</v>
+        <v>3468</v>
       </c>
       <c r="I24" s="17">
-        <v>3468</v>
+        <v>3999</v>
       </c>
       <c r="J24" s="17">
-        <v>3999</v>
+        <v>4126</v>
       </c>
       <c r="K24" s="17">
-        <v>4126</v>
+        <v>5511</v>
       </c>
       <c r="L24" s="17">
-        <v>5511</v>
+        <v>3843</v>
       </c>
       <c r="M24" s="17">
-        <v>3843</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1365,43 +1366,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>2267</v>
+        <v>5520</v>
       </c>
       <c r="E26" s="11">
-        <v>5520</v>
+        <v>6141</v>
       </c>
       <c r="F26" s="11">
-        <v>6141</v>
+        <v>6430</v>
       </c>
       <c r="G26" s="11">
-        <v>6430</v>
+        <v>5747</v>
       </c>
       <c r="H26" s="11">
-        <v>5747</v>
+        <v>5268</v>
       </c>
       <c r="I26" s="11">
-        <v>5268</v>
+        <v>5446</v>
       </c>
       <c r="J26" s="11">
-        <v>5446</v>
+        <v>5105</v>
       </c>
       <c r="K26" s="11">
-        <v>5105</v>
+        <v>12897</v>
       </c>
       <c r="L26" s="11">
-        <v>12897</v>
+        <v>11513</v>
       </c>
       <c r="M26" s="11">
-        <v>11513</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/shoyande/kimiatec/income/quarterly/dollar.xlsx
+++ b/database/industries/shoyande/kimiatec/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\shoyande\kimiatec\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B05DF-4AF0-41D4-8F1A-2FD1B044BD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42768C1F-D1BE-494D-8DAC-3D0DBBD9ADF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,36 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-12-18 (3)</t>
+  </si>
+  <si>
+    <t>1400-04-14 (2)</t>
+  </si>
+  <si>
+    <t>1399-12-10 (2)</t>
+  </si>
+  <si>
+    <t>1399-12-24 (2)</t>
+  </si>
+  <si>
+    <t>1400-04-14 (8)</t>
+  </si>
+  <si>
+    <t>1400-06-01 (4)</t>
+  </si>
+  <si>
+    <t>1400-09-01 (4)</t>
+  </si>
+  <si>
     <t>1400-10-29 (3)</t>
   </si>
   <si>
@@ -85,24 +136,33 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1402-02-25 (8)</t>
-  </si>
-  <si>
-    <t>1401-04-28</t>
-  </si>
-  <si>
-    <t>1401-09-14 (2)</t>
+    <t>1402-03-18 (9)</t>
+  </si>
+  <si>
+    <t>1402-04-21 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-26 (3)</t>
   </si>
   <si>
     <t>1401-10-28</t>
   </si>
   <si>
-    <t>1402-02-25</t>
+    <t>1402-07-26 (4)</t>
+  </si>
+  <si>
+    <t>1402-04-21</t>
+  </si>
+  <si>
+    <t>1402-07-26</t>
   </si>
   <si>
     <t>فروش</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -115,9 +175,6 @@
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
   </si>
   <si>
@@ -130,7 +187,7 @@
     <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
   </si>
   <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -618,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
@@ -632,9 +689,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,8 +709,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,8 +735,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,8 +761,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,8 +785,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,8 +811,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,8 +837,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,8 +861,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,44 +907,102 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,518 +1015,948 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="13">
+      <c r="D11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="13">
+        <v>25354</v>
+      </c>
+      <c r="F11" s="13">
+        <v>7722</v>
+      </c>
+      <c r="G11" s="13">
+        <v>14517</v>
+      </c>
+      <c r="H11" s="13">
+        <v>13376</v>
+      </c>
+      <c r="I11" s="13">
+        <v>15809</v>
+      </c>
+      <c r="J11" s="13">
+        <v>12202</v>
+      </c>
+      <c r="K11" s="13">
+        <v>14111</v>
+      </c>
+      <c r="L11" s="13">
         <v>11525</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>17995</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>14529</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>16400</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>15290</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>18831</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>19124</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>21421</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>21070</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>16889</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>16843</v>
+      </c>
+      <c r="W11" s="13">
+        <v>20928</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11">
+      <c r="D12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-14084</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-3772</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-7778</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-6202</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-7877</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-6144</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-6623</v>
+      </c>
+      <c r="L12" s="11">
         <v>-4735</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-11137</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-7222</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-8142</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-8791</v>
       </c>
-      <c r="I12" s="11">
+      <c r="Q12" s="11">
         <v>-10513</v>
       </c>
-      <c r="J12" s="11">
+      <c r="R12" s="11">
         <v>-10473</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-11005</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-12038</v>
       </c>
-      <c r="M12" s="11">
+      <c r="U12" s="11">
         <v>-9880</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="11">
+        <v>-9488</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-11908</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="15">
+      <c r="D13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="15">
+        <v>11270</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3950</v>
+      </c>
+      <c r="G13" s="15">
+        <v>6739</v>
+      </c>
+      <c r="H13" s="15">
+        <v>7173</v>
+      </c>
+      <c r="I13" s="15">
+        <v>7932</v>
+      </c>
+      <c r="J13" s="15">
+        <v>6058</v>
+      </c>
+      <c r="K13" s="15">
+        <v>7488</v>
+      </c>
+      <c r="L13" s="15">
         <v>6789</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>6858</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>7308</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>8257</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>6499</v>
       </c>
-      <c r="I13" s="15">
+      <c r="Q13" s="15">
         <v>8318</v>
       </c>
-      <c r="J13" s="15">
+      <c r="R13" s="15">
         <v>8651</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>10416</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>9033</v>
       </c>
-      <c r="M13" s="15">
+      <c r="U13" s="15">
         <v>7009</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="15">
+        <v>7356</v>
+      </c>
+      <c r="W13" s="15">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11">
+      <c r="D14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-6755</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-1627</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-2051</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-2262</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-2602</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-2017</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-1873</v>
+      </c>
+      <c r="L14" s="11">
         <v>-1595</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-2519</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-2819</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-2905</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-2153</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-3833</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-3203</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-3768</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-3849</v>
       </c>
-      <c r="M14" s="11">
+      <c r="U14" s="11">
         <v>-2901</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="11">
+        <v>-2991</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-2823</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="G16" s="11">
+        <v>179</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-32</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-127</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="15">
+      <c r="D17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4518</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2323</v>
+      </c>
+      <c r="G17" s="15">
+        <v>4868</v>
+      </c>
+      <c r="H17" s="15">
+        <v>4880</v>
+      </c>
+      <c r="I17" s="15">
+        <v>5202</v>
+      </c>
+      <c r="J17" s="15">
+        <v>4041</v>
+      </c>
+      <c r="K17" s="15">
+        <v>5616</v>
+      </c>
+      <c r="L17" s="15">
         <v>5194</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>4339</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>4489</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>5352</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>4346</v>
       </c>
-      <c r="I17" s="15">
+      <c r="Q17" s="15">
         <v>4484</v>
       </c>
-      <c r="J17" s="15">
+      <c r="R17" s="15">
         <v>5448</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>6648</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>5184</v>
       </c>
-      <c r="M17" s="15">
+      <c r="U17" s="15">
         <v>4108</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="15">
+        <v>4365</v>
+      </c>
+      <c r="W17" s="15">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="11">
+      <c r="D18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-2719</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-574</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-924</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-943</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-816</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-680</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-584</v>
+      </c>
+      <c r="L18" s="11">
         <v>-479</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-603</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-637</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-609</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-604</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-707</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-845</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-797</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-769</v>
       </c>
-      <c r="M18" s="11">
+      <c r="U18" s="11">
         <v>-607</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="11">
+        <v>-849</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-957</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-840</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-26</v>
+      </c>
+      <c r="G19" s="13">
+        <v>55</v>
+      </c>
+      <c r="H19" s="13">
+        <v>45</v>
+      </c>
+      <c r="I19" s="13">
+        <v>-321</v>
+      </c>
+      <c r="J19" s="13">
+        <v>-6</v>
+      </c>
+      <c r="K19" s="13">
+        <v>-381</v>
+      </c>
+      <c r="L19" s="13">
+        <v>158</v>
+      </c>
+      <c r="M19" s="13">
+        <v>-32</v>
+      </c>
+      <c r="N19" s="13">
+        <v>-15</v>
+      </c>
+      <c r="O19" s="13">
+        <v>100</v>
+      </c>
+      <c r="P19" s="13">
         <v>35</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13">
-        <v>158</v>
-      </c>
-      <c r="E19" s="13">
-        <v>-32</v>
-      </c>
-      <c r="F19" s="13">
+      <c r="Q19" s="13">
+        <v>236</v>
+      </c>
+      <c r="R19" s="13">
+        <v>-167</v>
+      </c>
+      <c r="S19" s="13">
+        <v>-22</v>
+      </c>
+      <c r="T19" s="13">
+        <v>-322</v>
+      </c>
+      <c r="U19" s="13">
+        <v>586</v>
+      </c>
+      <c r="V19" s="13">
+        <v>-83</v>
+      </c>
+      <c r="W19" s="13">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="17">
+        <v>959</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1723</v>
+      </c>
+      <c r="G20" s="17">
+        <v>3999</v>
+      </c>
+      <c r="H20" s="17">
+        <v>3981</v>
+      </c>
+      <c r="I20" s="17">
+        <v>4065</v>
+      </c>
+      <c r="J20" s="17">
+        <v>3355</v>
+      </c>
+      <c r="K20" s="17">
+        <v>4650</v>
+      </c>
+      <c r="L20" s="17">
+        <v>4873</v>
+      </c>
+      <c r="M20" s="17">
+        <v>3705</v>
+      </c>
+      <c r="N20" s="17">
+        <v>3837</v>
+      </c>
+      <c r="O20" s="17">
+        <v>4843</v>
+      </c>
+      <c r="P20" s="17">
+        <v>3778</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>4014</v>
+      </c>
+      <c r="R20" s="17">
+        <v>4436</v>
+      </c>
+      <c r="S20" s="17">
+        <v>5830</v>
+      </c>
+      <c r="T20" s="17">
+        <v>4093</v>
+      </c>
+      <c r="U20" s="17">
+        <v>4087</v>
+      </c>
+      <c r="V20" s="17">
+        <v>3433</v>
+      </c>
+      <c r="W20" s="17">
+        <v>5524</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-207</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-261</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-986</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-188</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-516</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-280</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-314</v>
+      </c>
+      <c r="L21" s="13">
+        <v>-406</v>
+      </c>
+      <c r="M21" s="13">
+        <v>136</v>
+      </c>
+      <c r="N21" s="13">
+        <v>-142</v>
+      </c>
+      <c r="O21" s="13">
+        <v>-354</v>
+      </c>
+      <c r="P21" s="13">
+        <v>-310</v>
+      </c>
+      <c r="Q21" s="13">
         <v>-15</v>
       </c>
-      <c r="G19" s="13">
-        <v>100</v>
-      </c>
-      <c r="H19" s="13">
-        <v>35</v>
-      </c>
-      <c r="I19" s="13">
-        <v>236</v>
-      </c>
-      <c r="J19" s="13">
-        <v>-167</v>
-      </c>
-      <c r="K19" s="13">
-        <v>-22</v>
-      </c>
-      <c r="L19" s="13">
-        <v>-322</v>
-      </c>
-      <c r="M19" s="13">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17">
-        <v>4873</v>
-      </c>
-      <c r="E20" s="17">
-        <v>3705</v>
-      </c>
-      <c r="F20" s="17">
-        <v>3837</v>
-      </c>
-      <c r="G20" s="17">
-        <v>4843</v>
-      </c>
-      <c r="H20" s="17">
-        <v>3778</v>
-      </c>
-      <c r="I20" s="17">
-        <v>4014</v>
-      </c>
-      <c r="J20" s="17">
-        <v>4436</v>
-      </c>
-      <c r="K20" s="17">
-        <v>5830</v>
-      </c>
-      <c r="L20" s="17">
-        <v>4093</v>
-      </c>
-      <c r="M20" s="17">
-        <v>4093</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13">
-        <v>-406</v>
-      </c>
-      <c r="E21" s="13">
-        <v>136</v>
-      </c>
-      <c r="F21" s="13">
-        <v>-142</v>
-      </c>
-      <c r="G21" s="13">
-        <v>-354</v>
-      </c>
-      <c r="H21" s="13">
-        <v>-310</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-15</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="R21" s="13">
         <v>-311</v>
       </c>
-      <c r="K21" s="13">
+      <c r="S21" s="13">
         <v>-319</v>
       </c>
-      <c r="L21" s="13">
+      <c r="T21" s="13">
         <v>-250</v>
       </c>
-      <c r="M21" s="13">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U21" s="13">
+        <v>40</v>
+      </c>
+      <c r="V21" s="13">
+        <v>-240</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="17">
+      <c r="D22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="17">
+        <v>752</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1462</v>
+      </c>
+      <c r="G22" s="17">
+        <v>3013</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3793</v>
+      </c>
+      <c r="I22" s="17">
+        <v>3549</v>
+      </c>
+      <c r="J22" s="17">
+        <v>3075</v>
+      </c>
+      <c r="K22" s="17">
+        <v>4336</v>
+      </c>
+      <c r="L22" s="17">
         <v>4467</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>3840</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>3694</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>4489</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>3468</v>
       </c>
-      <c r="I22" s="17">
+      <c r="Q22" s="17">
         <v>3999</v>
       </c>
-      <c r="J22" s="17">
+      <c r="R22" s="17">
         <v>4126</v>
       </c>
-      <c r="K22" s="17">
+      <c r="S22" s="17">
         <v>5511</v>
       </c>
-      <c r="L22" s="17">
+      <c r="T22" s="17">
         <v>3843</v>
       </c>
-      <c r="M22" s="17">
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="17">
+        <v>4127</v>
+      </c>
+      <c r="V22" s="17">
+        <v>3193</v>
+      </c>
+      <c r="W22" s="17">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="17">
+      <c r="D24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="17">
+        <v>752</v>
+      </c>
+      <c r="F24" s="17">
+        <v>1462</v>
+      </c>
+      <c r="G24" s="17">
+        <v>3013</v>
+      </c>
+      <c r="H24" s="17">
+        <v>3793</v>
+      </c>
+      <c r="I24" s="17">
+        <v>3549</v>
+      </c>
+      <c r="J24" s="17">
+        <v>3075</v>
+      </c>
+      <c r="K24" s="17">
+        <v>4336</v>
+      </c>
+      <c r="L24" s="17">
         <v>4467</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>3840</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>3694</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>4489</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>3468</v>
       </c>
-      <c r="I24" s="17">
+      <c r="Q24" s="17">
         <v>3999</v>
       </c>
-      <c r="J24" s="17">
+      <c r="R24" s="17">
         <v>4126</v>
       </c>
-      <c r="K24" s="17">
+      <c r="S24" s="17">
         <v>5511</v>
       </c>
-      <c r="L24" s="17">
+      <c r="T24" s="17">
         <v>3843</v>
       </c>
-      <c r="M24" s="17">
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="17">
+        <v>4127</v>
+      </c>
+      <c r="V24" s="17">
+        <v>3193</v>
+      </c>
+      <c r="W24" s="17">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13">
-        <v>0</v>
+      <c r="D25" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -1365,50 +1985,110 @@
       <c r="M25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="11">
+      <c r="D26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4221</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3631</v>
+      </c>
+      <c r="G26" s="11">
+        <v>4185</v>
+      </c>
+      <c r="H26" s="11">
+        <v>4223</v>
+      </c>
+      <c r="I26" s="11">
+        <v>3616</v>
+      </c>
+      <c r="J26" s="11">
+        <v>3070</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2267</v>
+      </c>
+      <c r="L26" s="11">
         <v>5520</v>
       </c>
-      <c r="E26" s="11">
+      <c r="M26" s="11">
         <v>6141</v>
       </c>
-      <c r="F26" s="11">
+      <c r="N26" s="11">
         <v>6430</v>
       </c>
-      <c r="G26" s="11">
+      <c r="O26" s="11">
         <v>5747</v>
       </c>
-      <c r="H26" s="11">
+      <c r="P26" s="11">
         <v>5268</v>
       </c>
-      <c r="I26" s="11">
+      <c r="Q26" s="11">
         <v>5446</v>
       </c>
-      <c r="J26" s="11">
-        <v>5105</v>
-      </c>
-      <c r="K26" s="11">
-        <v>12897</v>
-      </c>
-      <c r="L26" s="11">
+      <c r="R26" s="11">
+        <v>13613</v>
+      </c>
+      <c r="S26" s="11">
+        <v>19345</v>
+      </c>
+      <c r="T26" s="11">
         <v>11513</v>
       </c>
-      <c r="M26" s="11">
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="11">
+        <v>13200</v>
+      </c>
+      <c r="V26" s="11">
+        <v>7763</v>
+      </c>
+      <c r="W26" s="11">
+        <v>12146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13">
-        <v>0</v>
+      <c r="D27" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E27" s="13">
         <v>0</v>
@@ -1437,8 +2117,38 @@
       <c r="M27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1451,6 +2161,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
